--- a/数据整理/stocks/港股/03988-中国银行.xlsx
+++ b/数据整理/stocks/港股/03988-中国银行.xlsx
@@ -451,631 +451,849 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8198</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9220</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8532</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>100.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>006778</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>广发恒生中国企业精明指数（QDII）A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>93.13</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2.60</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159963</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>006779</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>广发恒生中国企业精明指数（QDII）C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>93.13</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2.60</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160717</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161831</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银华恒生国企指数（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>87.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>510900</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达恒生国企(QDII-ETF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>98.44</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006106</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城量化港股通股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>87.87</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006355</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>95.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006809</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>11.96</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006810</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>11.96</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007107</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010365</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>12.51</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>159954</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>100.44</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>513680</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>建信港股通恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>95.54</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>159960</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>平安港股通恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>97.70</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>501310</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>166402</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>501025</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>12.51</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>159963</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>富国恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>99.29</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>501301</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>95.01</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1085,7 +1303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,15 +1324,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1126,26 +1354,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501301</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+          <t>易方达恒生国企(QDII-ETF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>102.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8581</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1154,26 +1392,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006355</t>
+          <t>501025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>95.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6252</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1182,26 +1430,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005659</t>
+          <t>010365</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方恒生ETF联接C</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>95.00</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8999</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1210,26 +1468,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>166402</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2746</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1238,26 +1506,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501025</t>
+          <t>159960</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+          <t>平安港股通恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12.21</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1266,25 +1544,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010365</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12.21</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1294,26 +1582,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>161831</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>银华恒生国企指数（QDII-LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>159954</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>南方恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>161831</t>
+          <t>501301</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银华恒生国企指数（QDII-LOF）</t>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>86.76</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006106</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>景顺长城量化港股通股票</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>86.66</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006778</t>
+          <t>160717</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发恒生中国企业精明指数（QDII）A</t>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.56</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1434,26 +1772,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006779</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发恒生中国企业精明指数（QDII）C</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.56</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>007107</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>太平 MSCI 香港价值增强指数A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11.99</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1490,26 +1848,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11.99</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007107</t>
+          <t>160924</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
+          <t>大成恒生指数（QDII-LOF）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007108</t>
+          <t>006355</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1574,26 +1962,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1602,26 +2000,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>006106</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>景顺长城量化港股通股票</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>513680</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>建信港股通恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1658,26 +2076,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>005659</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>南方恒生ETF联接C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1686,26 +2114,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>易方达恒生国企(QDII-ETF)</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>97.45</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1714,26 +2152,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>513680</t>
+          <t>006778</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>建信港股通恒生中国企业ETF</t>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1742,26 +2190,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>159954</t>
+          <t>159963</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>南方恒生中国企业ETF</t>
+          <t>富国恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>99.38</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1770,26 +2228,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>159960</t>
+          <t>166402</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>平安港股通恒生中国企业ETF</t>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>96.87</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>8</v>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1798,26 +2266,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>159963</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>富国恒生中国企业ETF</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>98.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>9</v>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1826,26 +2304,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>160717</t>
+          <t>006779</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>10</v>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1854,26 +2342,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>160924</t>
+          <t>007108</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>大成恒生指数（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/03988-中国银行.xlsx
+++ b/数据整理/stocks/港股/03988-中国银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2350,7 +2351,6 @@
           <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>93.66</t>
@@ -2366,6 +2366,934 @@
       </c>
       <c r="H28" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3891</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8146</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7712</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/03988-中国银行.xlsx
+++ b/数据整理/stocks/港股/03988-中国银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3299,4 +3300,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03988-中国银行.xlsx
+++ b/数据整理/stocks/港股/03988-中国银行.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3308,7 +3309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3319,17 +3320,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3339,14 +3360,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.96</v>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9509</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3355,14 +3398,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.73</v>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5152</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3371,13 +3436,1311 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3166</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>21</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>5.62</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03988-中国银行.xlsx
+++ b/数据整理/stocks/港股/03988-中国银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4655,7 +4656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4666,17 +4667,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4686,14 +4707,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.28</v>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2850</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4702,14 +4745,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.96</v>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1615</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4718,14 +4783,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.73</v>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7187</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4734,13 +4821,1289 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5107</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2962</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>103.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>96.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>21</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.62</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03988-中国银行.xlsx
+++ b/数据整理/stocks/港股/03988-中国银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6002,7 +6003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6013,17 +6014,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6033,14 +6054,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.75</v>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>104.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2706</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -6049,14 +6092,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.28</v>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1524</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -6065,14 +6130,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.96</v>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7426</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -6081,14 +6168,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>27</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.73</v>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -6097,13 +6206,1303 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>101.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>513530</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>21</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.62</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03988-中国银行.xlsx
+++ b/数据整理/stocks/港股/03988-中国银行.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,37 +467,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -507,36 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510900</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达恒生国企(QDII-ETF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>99.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.8198</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.75</v>
       </c>
     </row>
     <row r="3">
@@ -545,36 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010365</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>12.51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9220</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.75</v>
       </c>
     </row>
     <row r="4">
@@ -583,36 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501025</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>12.51</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8532</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="5">
@@ -621,36 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161831</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银华恒生国企指数（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.19</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2144</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="6">
@@ -659,36 +551,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159960</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>平安港股通恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>97.70</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1512</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.73</v>
       </c>
     </row>
     <row r="7">
@@ -697,604 +567,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006809</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>11.96</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1483</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006810</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>11.96</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1172</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501301</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>95.01</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0923</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159954</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>100.44</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0651</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>501310</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0641</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160717</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0589</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007107</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0520</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006355</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>95.01</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0151</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006106</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>景顺长城量化港股通股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>87.87</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>513680</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>建信港股通恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>95.54</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006778</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>广发恒生中国企业精明指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>159963</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富国恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>99.29</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>166402</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006779</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>广发恒生中国企业精明指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.62</v>
       </c>
     </row>
   </sheetData>
@@ -1308,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1329,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1369,22 +649,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>102.81</t>
+          <t>104.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.45</t>
+          <t>96.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.8581</t>
+          <t>3.2706</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1407,26 +687,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.31</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>12.21</t>
+          <t>12.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.6252</t>
+          <t>1.1524</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1445,26 +725,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12.21</t>
+          <t>12.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8999</t>
+          <t>0.7426</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1483,26 +763,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11.99</t>
+          <t>12.82</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2746</t>
+          <t>0.2051</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1511,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159960</t>
+          <t>159850</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>平安港股通恒生中国企业ETF</t>
+          <t>华夏恒生中国企业ETF（QDII）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>96.87</t>
+          <t>96.12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1906</t>
+          <t>0.1742</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1549,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>501301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11.99</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1175</t>
+          <t>0.1558</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1587,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>161831</t>
+          <t>159960</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>银华恒生国企指数（QDII-LOF）</t>
+          <t>平安港股通恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.76</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1118</t>
+          <t>0.1537</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1625,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>159954</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方恒生中国企业ETF</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>99.38</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>12.82</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1003</t>
+          <t>0.1064</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1663,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501301</t>
+          <t>159954</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+          <t>南方恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>101.59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0968</t>
+          <t>0.0902</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1701,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>513690</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>博时恒生港股通高股息率ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>97.83</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0911</t>
+          <t>0.0868</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1749,22 +1029,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0662</t>
+          <t>0.0836</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1777,36 +1057,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>161831</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>银华恒生国企指数（QDII-LOF）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>85.52</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0625</t>
+          <t>0.0720</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1825,26 +1105,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0583</t>
+          <t>0.0673</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1853,36 +1133,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>006355</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0551</t>
+          <t>0.0636</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1891,36 +1171,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>160924</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>大成恒生指数（QDII-LOF）</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0204</t>
+          <t>0.0562</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1929,36 +1209,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006355</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>90.20</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0161</t>
+          <t>0.0547</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1967,36 +1247,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0147</t>
+          <t>0.0513</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -2005,36 +1285,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006106</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>景顺长城量化港股通股票</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>86.66</t>
+          <t>90.20</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0127</t>
+          <t>0.0363</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -2043,32 +1323,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>513680</t>
+          <t>160924</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>建信港股通恒生中国企业ETF</t>
+          <t>大成恒生指数（QDII-LOF）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>91.64</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0114</t>
+          <t>0.0264</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2081,32 +1361,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005659</t>
+          <t>513530</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>南方恒生ETF联接C</t>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.0180</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2119,32 +1399,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>92.09</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0101</t>
+          <t>0.0156</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -2157,36 +1437,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>006778</t>
+          <t>513990</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>广发恒生中国企业精明指数（QDII）A</t>
+          <t>招商上证港股通ETF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>93.56</t>
+          <t>95.33</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0091</t>
+          <t>0.0111</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2195,36 +1475,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>159963</t>
+          <t>006106</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>富国恒生中国企业ETF</t>
+          <t>景顺长城量化港股通股票</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>98.04</t>
+          <t>85.25</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0058</t>
+          <t>0.0105</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -2233,36 +1513,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>166402</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.0088</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -2271,36 +1551,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>513680</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>建信港股通恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.0074</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -2309,32 +1589,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>006779</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>广发恒生中国企业精明指数（QDII）C</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>93.56</t>
+          <t>90.02</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0065</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -2347,29 +1627,336 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>007108</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
         <v>0</v>
       </c>
-      <c r="H28" t="n">
-        <v>3</v>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2383,7 +1970,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2404,7 +1991,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2434,36 +2021,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501025</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+          <t>易方达恒生国企(QDII-ETF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.26</t>
+          <t>101.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>97.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11.33</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3891</t>
+          <t>3.2850</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2472,32 +2059,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010365</t>
+          <t>501025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>9.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11.33</t>
+          <t>11.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8146</t>
+          <t>1.1615</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2510,36 +2097,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002332</t>
+          <t>010365</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票A</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.10</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.24</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>11.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7712</t>
+          <t>0.7187</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2548,32 +2135,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>159960</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>平安港股通恒生中国企业ETF</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>7.93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.93</t>
+          <t>90.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1604</t>
+          <t>0.5107</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2586,36 +2173,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>90.20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>11.25</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1598</t>
+          <t>0.2962</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2624,36 +2211,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501301</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>11.84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0769</t>
+          <t>0.2356</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2662,36 +2249,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>159954</t>
+          <t>159850</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方恒生中国企业ETF</t>
+          <t>华夏恒生中国企业ETF（QDII）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>99.21</t>
+          <t>93.95</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0764</t>
+          <t>0.1906</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -2700,36 +2287,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>159960</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>平安港股通恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>96.86</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0746</t>
+          <t>0.1493</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2738,36 +2325,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>161831</t>
+          <t>501301</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银华恒生国企指数（QDII-LOF）</t>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>85.46</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0697</t>
+          <t>0.1348</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -2776,36 +2363,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>513600</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>南方恒生ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0627</t>
+          <t>0.1260</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2814,36 +2401,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007107</t>
+          <t>159954</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
+          <t>南方恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>103.89</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0608</t>
+          <t>0.1156</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -2862,22 +2449,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>11.25</t>
+          <t>11.84</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0608</t>
+          <t>0.1066</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -2890,32 +2477,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>89.20</t>
+          <t>92.23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0580</t>
+          <t>0.0949</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -2928,36 +2515,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002333</t>
+          <t>160717</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票C</t>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>84.24</t>
+          <t>94.76</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0474</t>
+          <t>0.0810</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -2966,36 +2553,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>011651</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>招商港股通核心精选股票A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>91.20</t>
+          <t>81.27</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0185</t>
+          <t>0.0767</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -3004,36 +2591,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>161831</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>银华恒生国企指数（QDII-LOF）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>86.34</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0760</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -3042,36 +2629,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006355</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0132</t>
+          <t>0.0717</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -3080,36 +2667,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006106</t>
+          <t>007107</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>景顺长城量化港股通股票</t>
+          <t>太平 MSCI 香港价值增强指数A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>86.22</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0105</t>
+          <t>0.0667</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -3118,36 +2705,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>513680</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>建信港股通恒生中国企业ETF</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>92.23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.0616</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -3156,36 +2743,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>006355</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0089</t>
+          <t>0.0488</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -3194,36 +2781,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>160924</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>大成恒生指数（QDII-LOF）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>89.20</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.0265</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -3232,36 +2819,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>007760</t>
+          <t>011652</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+          <t>招商港股通核心精选股票C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>91.20</t>
+          <t>81.27</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0257</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -3270,34 +2857,452 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>96.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>007108</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="n">
-        <v>5</v>
+      <c r="H35" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4657,7 +4662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4678,7 +4683,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -4708,36 +4713,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>501025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达恒生国企(QDII-ETF)</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>101.39</t>
+          <t>12.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.12</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>11.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2850</t>
+          <t>1.3891</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4746,32 +4751,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501025</t>
+          <t>010365</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.81</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11.84</t>
+          <t>11.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1615</t>
+          <t>0.8146</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -4784,36 +4789,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010365</t>
+          <t>002332</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+          <t>汇丰晋信沪港深股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>17.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>84.24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>11.84</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7187</t>
+          <t>0.7712</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4822,32 +4827,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>159960</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>平安港股通恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.93</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.20</t>
+          <t>95.93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5107</t>
+          <t>0.1604</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -4860,36 +4865,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.20</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>11.25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2962</t>
+          <t>0.1598</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -4898,36 +4903,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>501301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11.84</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2356</t>
+          <t>0.0769</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -4936,36 +4941,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>159850</t>
+          <t>159954</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏恒生中国企业ETF（QDII）</t>
+          <t>南方恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>99.21</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1906</t>
+          <t>0.0764</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -4974,36 +4979,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>159960</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>平安港股通恒生中国企业ETF</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>96.86</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1493</t>
+          <t>0.0746</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -5012,36 +5017,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501301</t>
+          <t>161831</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+          <t>银华恒生国企指数（QDII-LOF）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>85.46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1348</t>
+          <t>0.0697</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -5050,36 +5055,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>513600</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方恒生ETF</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>99.00</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1260</t>
+          <t>0.0627</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -5088,36 +5093,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>159954</t>
+          <t>007107</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>南方恒生中国企业ETF</t>
+          <t>太平 MSCI 香港价值增强指数A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>103.89</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1156</t>
+          <t>0.0608</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -5136,22 +5141,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>11.84</t>
+          <t>11.25</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1066</t>
+          <t>0.0608</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -5164,32 +5169,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>89.20</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0949</t>
+          <t>0.0580</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -5202,36 +5207,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>160717</t>
+          <t>002333</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+          <t>汇丰晋信沪港深股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>84.24</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0810</t>
+          <t>0.0474</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -5240,36 +5245,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011651</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>招商港股通核心精选股票A</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>81.27</t>
+          <t>91.20</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0767</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -5278,36 +5283,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>161831</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>银华恒生国企指数（QDII-LOF）</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>86.34</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0760</t>
+          <t>0.0140</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -5316,36 +5321,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>006355</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0717</t>
+          <t>0.0132</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -5354,36 +5359,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>007107</t>
+          <t>006106</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
+          <t>景顺长城量化港股通股票</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>86.22</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0667</t>
+          <t>0.0105</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -5392,36 +5397,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>513680</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>建信港股通恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>92.33</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0616</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -5430,36 +5435,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006355</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0488</t>
+          <t>0.0089</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -5468,36 +5473,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>160924</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大成恒生指数（QDII-LOF）</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>89.20</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0265</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -5506,36 +5511,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011652</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>招商港股通核心精选股票C</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>81.27</t>
+          <t>91.20</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0257</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -5544,452 +5549,34 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>007108</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>513680</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>建信港股通恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>96.77</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>513990</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>招商上证港股通ETF</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>96.48</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006106</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>景顺长城量化港股通股票</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>85.20</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001942</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006658</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>90.59</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001943</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>166402</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>90.95</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.80</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>006659</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>90.59</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6003,7 +5590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6024,7 +5611,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -6064,22 +5651,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>104.16</t>
+          <t>102.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.98</t>
+          <t>97.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2706</t>
+          <t>2.8581</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -6102,26 +5689,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.11</t>
+          <t>13.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>95.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>12.65</t>
+          <t>12.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1524</t>
+          <t>1.6252</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6140,26 +5727,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>95.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12.65</t>
+          <t>12.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7426</t>
+          <t>0.8999</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -6178,26 +5765,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>12.82</t>
+          <t>11.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2051</t>
+          <t>0.2746</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -6206,36 +5793,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159850</t>
+          <t>159960</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏恒生中国企业ETF（QDII）</t>
+          <t>平安港股通恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>96.12</t>
+          <t>96.87</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1742</t>
+          <t>0.1906</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -6244,36 +5831,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501301</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>11.99</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1558</t>
+          <t>0.1175</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -6282,36 +5869,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>159960</t>
+          <t>161831</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>平安港股通恒生中国企业ETF</t>
+          <t>银华恒生国企指数（QDII-LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>86.76</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1537</t>
+          <t>0.1118</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -6320,36 +5907,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>159954</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>南方恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>99.38</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>12.82</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1064</t>
+          <t>0.1003</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -6358,36 +5945,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>159954</t>
+          <t>501301</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方恒生中国企业ETF</t>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>101.59</t>
+          <t>95.00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0902</t>
+          <t>0.0968</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -6396,36 +5983,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>513690</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时恒生港股通高股息率ETF</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>97.83</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0868</t>
+          <t>0.0911</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -6444,22 +6031,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>94.93</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0836</t>
+          <t>0.0662</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -6472,36 +6059,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>161831</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银华恒生国企指数（QDII-LOF）</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85.52</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0720</t>
+          <t>0.0625</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -6520,26 +6107,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0673</t>
+          <t>0.0583</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -6548,36 +6135,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006355</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0636</t>
+          <t>0.0551</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -6586,36 +6173,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>160924</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>大成恒生指数（QDII-LOF）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0562</t>
+          <t>0.0204</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -6624,36 +6211,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>006355</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.20</t>
+          <t>95.00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0547</t>
+          <t>0.0161</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -6662,36 +6249,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0513</t>
+          <t>0.0147</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -6700,36 +6287,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>006106</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>景顺长城量化港股通股票</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>90.20</t>
+          <t>86.66</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0363</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -6738,32 +6325,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>160924</t>
+          <t>513680</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大成恒生指数（QDII-LOF）</t>
+          <t>建信港股通恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0264</t>
+          <t>0.0114</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -6776,32 +6363,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>513530</t>
+          <t>005659</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+          <t>南方恒生ETF联接C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>95.00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0180</t>
+          <t>0.0111</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -6814,32 +6401,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0156</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -6852,36 +6439,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>513990</t>
+          <t>006778</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>招商上证港股通ETF</t>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>95.33</t>
+          <t>93.56</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.0091</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -6890,36 +6477,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>006106</t>
+          <t>159963</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>景顺长城量化港股通股票</t>
+          <t>富国恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>85.25</t>
+          <t>98.04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0105</t>
+          <t>0.0058</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -6928,36 +6515,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>166402</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>93.61</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0088</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -6966,36 +6553,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>513680</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>建信港股通恒生中国企业ETF</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -7004,32 +6591,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>006779</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>90.02</t>
+          <t>93.56</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0065</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -7042,336 +6629,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>005707</t>
+          <t>007108</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>富国港股通量化精选股票</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.25</t>
+          <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>84.92</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>005702</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>恒生前海港股通高股息低波动指数</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>90.80</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>501307</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>92.29</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>006659</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>90.02</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>501308</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>92.29</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>90.23</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>014163</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>富国港股通量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>84.92</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -7385,7 +6665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7396,17 +6676,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7416,14 +6716,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.75</v>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8198</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -7432,14 +6754,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.75</v>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9220</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -7448,14 +6792,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>34</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.28</v>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8532</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -7464,14 +6830,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.96</v>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -7480,14 +6868,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>27</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.73</v>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -7496,14 +6906,604 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>21</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.62</v>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>100.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006778</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159963</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006779</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/03988-中国银行.xlsx
+++ b/数据整理/stocks/港股/03988-中国银行.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>6.75</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>7.75</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>3.28</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>3.96</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>6.73</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>21</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.62</v>
       </c>
     </row>
@@ -583,6 +600,1086 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0309</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>14.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9270</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>14.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3415</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2246</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>14.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>14.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159726</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏恒生中国内地企业高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513530</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159788</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达中证港股通中国100ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1957,1352 +3054,6 @@
       </c>
       <c r="H36" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>510900</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达恒生国企(QDII-ETF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>101.39</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.12</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.2850</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501025</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.81</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>11.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1615</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010365</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>11.84</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7187</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007178</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5107</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007216</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.20</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2962</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006809</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>11.84</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2356</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>159850</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏恒生中国企业ETF（QDII）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1906</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>159960</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>平安港股通恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>96.86</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1493</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501301</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1348</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>513600</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方恒生ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>99.00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1260</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>159954</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>103.89</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1156</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006810</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>11.84</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1066</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005051</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0949</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>160717</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0810</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>011651</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商港股通核心精选股票A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>81.27</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0767</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>161831</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>银华恒生国企指数（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>86.34</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0760</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>501310</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.80</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0717</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007107</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0667</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005052</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0616</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006355</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0488</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>160924</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>大成恒生指数（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0265</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>011652</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>招商港股通核心精选股票C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>81.27</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0257</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007751</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>513680</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>建信港股通恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>96.77</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>513990</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>招商上证港股通ETF</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>96.48</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006106</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>景顺长城量化港股通股票</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>85.20</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001942</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006658</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>90.59</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001943</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>166402</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>90.95</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.80</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>006659</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>90.59</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3367,36 +3118,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501025</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+          <t>易方达恒生国企(QDII-ETF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>101.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.20</t>
+          <t>97.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9509</t>
+          <t>3.2850</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3405,32 +3156,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010365</t>
+          <t>501025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>9.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.20</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>11.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5152</t>
+          <t>1.1615</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -3443,36 +3194,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011635</t>
+          <t>010365</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国港股通策略精选混合型证券投资基金A</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.43</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.49</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>11.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3166</t>
+          <t>0.7187</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3481,36 +3232,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007354</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信港股通量化股票A</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>7.93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.59</t>
+          <t>90.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1818</t>
+          <t>0.5107</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3519,36 +3270,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>90.20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>11.67</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1645</t>
+          <t>0.2962</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -3557,36 +3308,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>11.84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1479</t>
+          <t>0.2356</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -3595,36 +3346,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>159960</t>
+          <t>159850</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>平安港股通恒生中国企业ETF</t>
+          <t>华夏恒生中国企业ETF（QDII）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>97.28</t>
+          <t>93.95</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1347</t>
+          <t>0.1906</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -3633,36 +3384,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>159960</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>平安港股通恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>96.86</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>11.67</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0969</t>
+          <t>0.1493</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -3671,36 +3422,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>501301</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.70</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0865</t>
+          <t>0.1348</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -3709,32 +3460,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501301</t>
+          <t>513600</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+          <t>南方恒生ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0794</t>
+          <t>0.1260</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -3757,26 +3508,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>99.03</t>
+          <t>103.89</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0760</t>
+          <t>0.1156</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -3785,17 +3536,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3805,16 +3556,16 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>11.84</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0693</t>
+          <t>0.1066</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -3823,36 +3574,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007107</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>92.23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0687</t>
+          <t>0.0949</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -3871,26 +3622,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>95.03</t>
+          <t>94.76</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0676</t>
+          <t>0.0810</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -3899,36 +3650,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>161831</t>
+          <t>011651</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>银华恒生国企指数（QDII-LOF）</t>
+          <t>招商港股通核心精选股票A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>84.56</t>
+          <t>81.27</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0639</t>
+          <t>0.0767</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -3937,36 +3688,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>161831</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>银华恒生国企指数（QDII-LOF）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>86.34</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0465</t>
+          <t>0.0760</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -3975,36 +3726,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>513690</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>博时恒生港股通高股息率ETF</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>96.86</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0412</t>
+          <t>0.0717</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -4013,36 +3764,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>007107</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>太平 MSCI 香港价值增强指数A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>86.14</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0263</t>
+          <t>0.0667</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -4051,36 +3802,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>160924</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大成恒生指数（QDII-LOF）</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>92.23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0202</t>
+          <t>0.0616</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -4089,36 +3840,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>006355</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>91.09</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0195</t>
+          <t>0.0488</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -4127,36 +3878,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006355</t>
+          <t>160924</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+          <t>大成恒生指数（QDII-LOF）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0188</t>
+          <t>0.0265</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -4165,36 +3916,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011636</t>
+          <t>011652</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>富国港股通策略精选混合型证券投资基金C</t>
+          <t>招商港股通核心精选股票C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>85.49</t>
+          <t>81.27</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0141</t>
+          <t>0.0257</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -4203,36 +3954,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>91.29</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0139</t>
+          <t>0.0251</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -4241,36 +3992,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>006106</t>
+          <t>513680</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>景顺长城量化港股通股票</t>
+          <t>建信港股通恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>84.52</t>
+          <t>96.77</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0127</t>
+          <t>0.0106</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -4279,36 +4030,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>513680</t>
+          <t>513990</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>建信港股通恒生中国企业ETF</t>
+          <t>招商上证港股通ETF</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>96.48</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0107</t>
+          <t>0.0105</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -4317,36 +4068,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>006106</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>景顺长城量化港股通股票</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>85.20</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0106</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -4355,36 +4106,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>007357</t>
+          <t>001942</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>创金合信港股通量化股票C</t>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>89.59</t>
+          <t>90.39</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>8.32</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -4393,36 +4144,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>005702</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>恒生前海港股通高股息低波动指数</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>90.59</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0068</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -4431,36 +4182,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>001943</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>86.14</t>
+          <t>90.39</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>8.32</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0059</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -4479,26 +4230,26 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>90.70</t>
+          <t>90.95</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0050</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -4517,26 +4268,26 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -4555,22 +4306,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>91.09</t>
+          <t>91.29</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -4593,26 +4344,26 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>91.70</t>
+          <t>90.59</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -4636,12 +4387,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -4657,6 +4408,1352 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9509</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5152</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3166</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5584,7 +6681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6659,7 +7756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
